--- a/case 1/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
+++ b/case 1/CG-DN Case Study for Database_v1.3_Answer_and_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C_Document\module_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CODEGYM\module_3\case 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D036F-1733-43D5-A6B6-A5EB7C3177DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="816" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="816" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <sheet name="hop_dong" sheetId="15" r:id="rId13"/>
     <sheet name="hop_dong_chi_tiet" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pato</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1091,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1518,7 +1517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1576,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1638,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1948,7 +1947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2102,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2445,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2608,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -4487,7 +4486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4541,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4613,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4685,7 +4684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5112,16 +5111,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="H9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId3"/>
+    <hyperlink ref="H8" r:id="rId4"/>
+    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -5129,7 +5128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5210,7 +5209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5568,16 +5567,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="H12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="H13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="H14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H11" r:id="rId7"/>
+    <hyperlink ref="H12" r:id="rId8"/>
+    <hyperlink ref="H13" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -5586,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
